--- a/pred_ohlcv/54_21/2020-01-26 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 MTL ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>7914.903672220002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8114.903672220002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6361.534772220002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2352.604672220002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3935.435572220002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4169.235572220002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2201.140027779998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1148.444927779999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2123.059927779998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2877.059927779998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6954.059827779998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5334.112627779998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5334.112627779998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5361.275927779998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>199.8693722200014</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>203.8693722200014</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>217.8693722200014</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7532.700727779998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6609.429327779999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-7620.429327779999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>14633.51157222</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>14628.51157222</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-198692.13452778</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-160441.88241792</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-160892.7508179201</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-159980.3557179201</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-163537.71821792</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-186492.03741792</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-186512.03741792</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-188877.41371792</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-192547.39411792</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-186907.00001792</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-199205.12081792</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-199225.12081792</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-204025.12081792</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-204018.12081792</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-204267.86021792</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-200175.2514179201</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>5234.412672220002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7914.903672220002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8114.903672220002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6361.534772220002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2352.604672220002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3935.435572220002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2123.059927779998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2877.059927779998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5361.275927779998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>199.8693722200014</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>203.8693722200014</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>217.8693722200014</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7532.700727779998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>14628.51157222</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-183544.68932778</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-198692.13452778</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-175604.54831792</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-175604.54831792</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-160441.88241792</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-160892.7508179201</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-159980.3557179201</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-163537.71821792</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-186492.03741792</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-186512.03741792</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-188877.41371792</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-192547.39411792</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-186907.00001792</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-199205.12081792</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-199225.12081792</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-204025.12081792</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-204018.12081792</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-169499.41884502</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-169499.41884502</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-170215.33314502</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
